--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,33 +471,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4703</v>
+      </c>
+      <c r="E2" t="n">
+        <v>423</v>
+      </c>
+      <c r="F2" t="n">
+        <v>139</v>
+      </c>
+      <c r="G2" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -506,33 +496,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>QUEBRADA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1867</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3101</v>
+      </c>
+      <c r="E3" t="n">
+        <v>432</v>
+      </c>
+      <c r="F3" t="n">
+        <v>138</v>
+      </c>
+      <c r="G3" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -545,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>879</v>
+        <v>1989</v>
       </c>
       <c r="D4" t="n">
-        <v>4134.5</v>
+        <v>2794</v>
       </c>
       <c r="E4" t="n">
-        <v>856</v>
+        <v>428</v>
       </c>
       <c r="F4" t="n">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="G4" t="n">
-        <v>273</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -566,23 +546,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3008</v>
+        <v>634</v>
       </c>
       <c r="D5" t="n">
-        <v>3997.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>866</v>
-      </c>
-      <c r="F5" t="n">
-        <v>283</v>
-      </c>
-      <c r="G5" t="n">
-        <v>265</v>
+        <v>2728</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -591,18 +577,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>AMASSADA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2156</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -626,30 +608,132 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1879</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1853</v>
+      </c>
+      <c r="E7" t="n">
+        <v>420</v>
+      </c>
+      <c r="F7" t="n">
+        <v>137</v>
+      </c>
+      <c r="G7" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>967</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1298</v>
+      </c>
+      <c r="E8" t="n">
+        <v>427</v>
+      </c>
+      <c r="F8" t="n">
+        <v>139</v>
+      </c>
+      <c r="G8" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>QUEBRADA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="C9" t="n">
+        <v>2247</v>
+      </c>
+      <c r="D9" t="n">
+        <v>986</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D10" t="n">
+        <v>458</v>
+      </c>
+      <c r="E10" t="n">
+        <v>424</v>
+      </c>
+      <c r="F10" t="n">
+        <v>136</v>
+      </c>
+      <c r="G10" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AMASSADA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2045</v>
+      </c>
+      <c r="D11" t="n">
+        <v>397</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -471,23 +471,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RISCADA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>408</v>
+        <v>1364</v>
       </c>
       <c r="D2" t="n">
-        <v>4703</v>
-      </c>
-      <c r="E2" t="n">
-        <v>423</v>
-      </c>
-      <c r="F2" t="n">
-        <v>139</v>
-      </c>
-      <c r="G2" t="n">
-        <v>131</v>
+        <v>4733</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -500,19 +506,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1867</v>
+        <v>2135</v>
       </c>
       <c r="D3" t="n">
-        <v>3101</v>
+        <v>4637</v>
       </c>
       <c r="E3" t="n">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F3" t="n">
         <v>138</v>
       </c>
       <c r="G3" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +531,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1989</v>
+        <v>1888</v>
       </c>
       <c r="D4" t="n">
-        <v>2794</v>
+        <v>3743</v>
       </c>
       <c r="E4" t="n">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F4" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G4" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +556,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>634</v>
+        <v>1337</v>
       </c>
       <c r="D5" t="n">
-        <v>2728</v>
+        <v>3195</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -577,29 +583,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AMASSADA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1548</v>
+        <v>533</v>
       </c>
       <c r="D6" t="n">
-        <v>2156</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2686</v>
+      </c>
+      <c r="E6" t="n">
+        <v>423</v>
+      </c>
+      <c r="F6" t="n">
+        <v>138</v>
+      </c>
+      <c r="G6" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -608,23 +608,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1879</v>
+        <v>1469</v>
       </c>
       <c r="D7" t="n">
-        <v>1853</v>
-      </c>
-      <c r="E7" t="n">
-        <v>420</v>
-      </c>
-      <c r="F7" t="n">
-        <v>137</v>
-      </c>
-      <c r="G7" t="n">
-        <v>130</v>
+        <v>2632</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -637,19 +643,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>967</v>
+        <v>1020</v>
       </c>
       <c r="D8" t="n">
-        <v>1298</v>
+        <v>1877</v>
       </c>
       <c r="E8" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F8" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -658,14 +664,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>QUEBRADA</t>
+          <t>RISCADA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2247</v>
+        <v>1678</v>
       </c>
       <c r="D9" t="n">
-        <v>986</v>
+        <v>1103</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -693,19 +699,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D10" t="n">
-        <v>458</v>
+        <v>703</v>
       </c>
       <c r="E10" t="n">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F10" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G10" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -714,29 +720,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AMASSADA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2045</v>
+        <v>455</v>
       </c>
       <c r="D11" t="n">
-        <v>397</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>529</v>
+      </c>
+      <c r="E11" t="n">
+        <v>423</v>
+      </c>
+      <c r="F11" t="n">
+        <v>139</v>
+      </c>
+      <c r="G11" t="n">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
